--- a/gdr_features.xlsx
+++ b/gdr_features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Все фичи</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Defered rendering</t>
+  </si>
+  <si>
+    <t>Формат задания сцены</t>
+  </si>
+  <si>
+    <t>Плагин для Blender</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,14 +531,14 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="5">
         <f>(COUNTA(B:B)-1)/(COUNTA(B:B)-1 +COUNTA(C:C)-1 ) * 100</f>
-        <v>61.53846153846154</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -557,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -571,21 +577,21 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -614,7 +620,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -628,6 +634,9 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
@@ -636,6 +645,9 @@
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
@@ -714,6 +726,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/gdr_features.xlsx
+++ b/gdr_features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Все фичи</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Плагин для Blender</t>
+  </si>
+  <si>
+    <t>Antialiasing</t>
   </si>
 </sst>
 </file>
@@ -491,22 +494,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -538,10 +541,10 @@
       </c>
       <c r="E2" s="5">
         <f>(COUNTA(B:B)-1)/(COUNTA(B:B)-1 +COUNTA(C:C)-1 ) * 100</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -555,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -563,41 +566,35 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -608,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -619,7 +616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -630,7 +627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -638,10 +635,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -652,15 +649,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -668,74 +668,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
